--- a/Data_frame/balancos_definitivos/TIMS3.xlsx
+++ b/Data_frame/balancos_definitivos/TIMS3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:X80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,6 +544,16 @@
           <t>31/12/2023</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2024</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>30/06/2024</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -614,6 +624,12 @@
       <c r="V2" t="n">
         <v>55260155.904</v>
       </c>
+      <c r="W2" t="n">
+        <v>54334246.912</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -684,6 +700,12 @@
       <c r="V3" t="n">
         <v>11404293.12</v>
       </c>
+      <c r="W3" t="n">
+        <v>10334503.936</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -754,6 +776,12 @@
       <c r="V4" t="n">
         <v>3077931.008</v>
       </c>
+      <c r="W4" t="n">
+        <v>1984681.984</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -824,6 +852,12 @@
       <c r="V5" t="n">
         <v>1958489.984</v>
       </c>
+      <c r="W5" t="n">
+        <v>1386162.944</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -894,6 +928,12 @@
       <c r="V6" t="n">
         <v>3709765.888</v>
       </c>
+      <c r="W6" t="n">
+        <v>4042319.104</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -964,6 +1004,12 @@
       <c r="V7" t="n">
         <v>331783.008</v>
       </c>
+      <c r="W7" t="n">
+        <v>404688</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1034,6 +1080,12 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1104,6 +1156,12 @@
       <c r="V9" t="n">
         <v>1438148.992</v>
       </c>
+      <c r="W9" t="n">
+        <v>1240247.04</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1174,6 +1232,12 @@
       <c r="V10" t="n">
         <v>238468</v>
       </c>
+      <c r="W10" t="n">
+        <v>611592</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1244,6 +1308,12 @@
       <c r="V11" t="n">
         <v>649705.9840000001</v>
       </c>
+      <c r="W11" t="n">
+        <v>664812.992</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1314,6 +1384,12 @@
       <c r="V12" t="n">
         <v>4368195.072</v>
       </c>
+      <c r="W12" t="n">
+        <v>4429775.872</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1384,6 +1460,12 @@
       <c r="V13" t="n">
         <v>12949</v>
       </c>
+      <c r="W13" t="n">
+        <v>12965</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1454,6 +1536,12 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1524,6 +1612,12 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1594,6 +1688,12 @@
       <c r="V16" t="n">
         <v>199007.008</v>
       </c>
+      <c r="W16" t="n">
+        <v>189598</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1664,6 +1764,12 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1734,6 +1840,12 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1804,6 +1916,12 @@
       <c r="V19" t="n">
         <v>1257494.016</v>
       </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1874,6 +1992,12 @@
       <c r="V20" t="n">
         <v>138936.992</v>
       </c>
+      <c r="W20" t="n">
+        <v>190827.008</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1944,6 +2068,12 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2014,6 +2144,12 @@
       <c r="V22" t="n">
         <v>1450812.032</v>
       </c>
+      <c r="W22" t="n">
+        <v>1428311.04</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2084,6 +2220,12 @@
       <c r="V23" t="n">
         <v>22411816.96</v>
       </c>
+      <c r="W23" t="n">
+        <v>22689447.936</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2154,6 +2296,12 @@
       <c r="V24" t="n">
         <v>15625040.896</v>
       </c>
+      <c r="W24" t="n">
+        <v>15452209.152</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2224,6 +2372,12 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2294,6 +2448,12 @@
       <c r="V26" t="n">
         <v>55260155.904</v>
       </c>
+      <c r="W26" t="n">
+        <v>54334246.912</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2364,6 +2524,12 @@
       <c r="V27" t="n">
         <v>12882965.504</v>
       </c>
+      <c r="W27" t="n">
+        <v>12773033.984</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2434,6 +2600,12 @@
       <c r="V28" t="n">
         <v>386348</v>
       </c>
+      <c r="W28" t="n">
+        <v>462764</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2504,6 +2676,12 @@
       <c r="V29" t="n">
         <v>4612111.872</v>
       </c>
+      <c r="W29" t="n">
+        <v>3911913.984</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2574,6 +2752,12 @@
       <c r="V30" t="n">
         <v>3112521.984</v>
       </c>
+      <c r="W30" t="n">
+        <v>3164444.928</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2644,6 +2828,12 @@
       <c r="V31" t="n">
         <v>1267236.992</v>
       </c>
+      <c r="W31" t="n">
+        <v>760681.9840000001</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2714,6 +2904,12 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2784,6 +2980,12 @@
       <c r="V33" t="n">
         <v>647872</v>
       </c>
+      <c r="W33" t="n">
+        <v>1579670.016</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2854,6 +3056,12 @@
       <c r="V34" t="n">
         <v>2856875.008</v>
       </c>
+      <c r="W34" t="n">
+        <v>2893558.784</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2924,6 +3132,12 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2994,6 +3208,12 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3064,6 +3284,12 @@
       <c r="V37" t="n">
         <v>16361249.792</v>
       </c>
+      <c r="W37" t="n">
+        <v>16535998.464</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3134,6 +3360,12 @@
       <c r="V38" t="n">
         <v>2503708.928</v>
       </c>
+      <c r="W38" t="n">
+        <v>2487200</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3204,6 +3436,12 @@
       <c r="V39" t="n">
         <v>0</v>
       </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3274,6 +3512,12 @@
       <c r="V40" t="n">
         <v>12442222.592</v>
       </c>
+      <c r="W40" t="n">
+        <v>12514525.184</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3344,6 +3588,12 @@
       <c r="V41" t="n">
         <v>0</v>
       </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3414,6 +3664,12 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3484,6 +3740,12 @@
       <c r="V43" t="n">
         <v>1415318.016</v>
       </c>
+      <c r="W43" t="n">
+        <v>1534273.024</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3554,6 +3816,12 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3624,6 +3892,12 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3694,6 +3968,12 @@
       <c r="V46" t="n">
         <v>0</v>
       </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3764,6 +4044,12 @@
       <c r="V47" t="n">
         <v>26015940.608</v>
       </c>
+      <c r="W47" t="n">
+        <v>25025216.512</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3834,6 +4120,12 @@
       <c r="V48" t="n">
         <v>13477891.072</v>
       </c>
+      <c r="W48" t="n">
+        <v>13477891.072</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3904,6 +4196,12 @@
       <c r="V49" t="n">
         <v>381327.008</v>
       </c>
+      <c r="W49" t="n">
+        <v>381180</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3974,6 +4272,12 @@
       <c r="V50" t="n">
         <v>0</v>
       </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4044,6 +4348,12 @@
       <c r="V51" t="n">
         <v>12160034.816</v>
       </c>
+      <c r="W51" t="n">
+        <v>10850034.688</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4114,6 +4424,12 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
+      <c r="W52" t="n">
+        <v>319423.008</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4184,6 +4500,12 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4254,6 +4576,12 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4324,6 +4652,12 @@
       <c r="V55" t="n">
         <v>-3313</v>
       </c>
+      <c r="W55" t="n">
+        <v>-3313</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4392,6 +4726,12 @@
         <v>0</v>
       </c>
       <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4422,6 +4762,8 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4450,6 +4792,8 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4518,6 +4862,12 @@
       <c r="V59" t="n">
         <v>6275158.528</v>
       </c>
+      <c r="W59" t="n">
+        <v>6095528.96</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4586,6 +4936,12 @@
       <c r="V60" t="n">
         <v>-2913371.904</v>
       </c>
+      <c r="W60" t="n">
+        <v>-2952880.896</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4654,6 +5010,12 @@
       <c r="V61" t="n">
         <v>3361787.136</v>
       </c>
+      <c r="W61" t="n">
+        <v>3142648.064</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4722,6 +5084,12 @@
       <c r="V62" t="n">
         <v>-1454551.168</v>
       </c>
+      <c r="W62" t="n">
+        <v>-1465720.064</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4790,6 +5158,12 @@
       <c r="V63" t="n">
         <v>-449816.928</v>
       </c>
+      <c r="W63" t="n">
+        <v>-448639.008</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4856,6 +5230,12 @@
         <v>0</v>
       </c>
       <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4926,6 +5306,12 @@
       <c r="V65" t="n">
         <v>357548</v>
       </c>
+      <c r="W65" t="n">
+        <v>41814</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4994,6 +5380,12 @@
       <c r="V66" t="n">
         <v>-111992</v>
       </c>
+      <c r="W66" t="n">
+        <v>-134674</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5061,6 +5453,12 @@
       </c>
       <c r="V67" t="n">
         <v>-22886</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-22501</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -5130,6 +5528,12 @@
       <c r="V68" t="n">
         <v>-477770.016</v>
       </c>
+      <c r="W68" t="n">
+        <v>-524992.992</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5198,6 +5602,12 @@
       <c r="V69" t="n">
         <v>339783.04</v>
       </c>
+      <c r="W69" t="n">
+        <v>252452</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5265,6 +5675,12 @@
       </c>
       <c r="V70" t="n">
         <v>-817553.088</v>
+      </c>
+      <c r="W70" t="n">
+        <v>-777444.992</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -5294,6 +5710,8 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5322,6 +5740,8 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5350,6 +5770,8 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5418,6 +5840,12 @@
       <c r="V74" t="n">
         <v>1202319.104</v>
       </c>
+      <c r="W74" t="n">
+        <v>587934.976</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5486,6 +5914,12 @@
       <c r="V75" t="n">
         <v>11624.008</v>
       </c>
+      <c r="W75" t="n">
+        <v>-80558</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5553,6 +5987,12 @@
       </c>
       <c r="V76" t="n">
         <v>-131434</v>
+      </c>
+      <c r="W76" t="n">
+        <v>12046</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -5582,6 +6022,8 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5610,6 +6052,8 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5658,6 +6102,10 @@
       <c r="V79" t="n">
         <v>0</v>
       </c>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5725,6 +6173,12 @@
       </c>
       <c r="V80" t="n">
         <v>1082509.056</v>
+      </c>
+      <c r="W80" t="n">
+        <v>519423.008</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
